--- a/GraphPerct.xlsx
+++ b/GraphPerct.xlsx
@@ -442,67 +442,67 @@
   <sheetData>
     <row r="2">
       <c r="E2" t="n">
-        <v>0.26</v>
+        <v>1.11</v>
       </c>
       <c r="F2" t="n">
-        <v>0.82</v>
+        <v>2.3</v>
       </c>
       <c r="G2" t="n">
-        <v>2.71</v>
+        <v>6.35</v>
       </c>
       <c r="H2" t="n">
-        <v>5.31</v>
+        <v>12.9</v>
       </c>
       <c r="I2" t="n">
-        <v>10.78</v>
+        <v>26.15</v>
       </c>
       <c r="J2" t="n">
-        <v>17.01</v>
+        <v>43.98</v>
       </c>
       <c r="K2" t="n">
-        <v>25.83</v>
+        <v>62.48</v>
       </c>
       <c r="L2" t="n">
-        <v>28.08</v>
+        <v>71.11</v>
       </c>
       <c r="M2" t="n">
-        <v>27.54</v>
+        <v>66.8</v>
       </c>
       <c r="N2" t="n">
-        <v>32.45</v>
+        <v>69.41</v>
       </c>
       <c r="O2" t="n">
-        <v>28.93</v>
+        <v>75.2</v>
       </c>
       <c r="P2" t="n">
-        <v>23.54</v>
+        <v>57.18</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.98</v>
+        <v>53.01</v>
       </c>
       <c r="R2" t="n">
-        <v>18.23</v>
+        <v>34.85</v>
       </c>
       <c r="S2" t="n">
-        <v>14.26</v>
+        <v>48.19</v>
       </c>
       <c r="T2" t="n">
-        <v>8.67</v>
+        <v>27.1</v>
       </c>
       <c r="U2" t="n">
-        <v>5.18</v>
+        <v>13.91</v>
       </c>
       <c r="V2" t="n">
-        <v>3.25</v>
+        <v>8.59</v>
       </c>
       <c r="W2" t="n">
-        <v>2.04</v>
+        <v>4.61</v>
       </c>
       <c r="X2" t="n">
-        <v>0.71</v>
+        <v>1.4</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.15</v>
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
